--- a/All combined by states.xlsx
+++ b/All combined by states.xlsx
@@ -9,14 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="10600" yWindow="460" windowWidth="13740" windowHeight="13780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -439,470 +436,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="final_frame_manip2"/>
-      <sheetName val="Hillary_pivot"/>
-      <sheetName val="Hillary"/>
-      <sheetName val="Trump_pivot"/>
-      <sheetName val="Trump"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="E2" t="str">
-            <v>States</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>Row Labels</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>Average of sentiment_state</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4" t="str">
-            <v>AK</v>
-          </cell>
-          <cell r="F4">
-            <v>-9.5402999999999946E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>AL</v>
-          </cell>
-          <cell r="F5">
-            <v>-4.0800969305331031E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6" t="str">
-            <v>AR</v>
-          </cell>
-          <cell r="F6">
-            <v>-7.7000950118765163E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>AZ</v>
-          </cell>
-          <cell r="F7">
-            <v>-7.8852811059907407E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>CA</v>
-          </cell>
-          <cell r="F8">
-            <v>-4.8321144024515345E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9" t="str">
-            <v>CO</v>
-          </cell>
-          <cell r="F9">
-            <v>-4.383077922077934E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>CT</v>
-          </cell>
-          <cell r="F10">
-            <v>-4.3880890052356632E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11" t="str">
-            <v>DC</v>
-          </cell>
-          <cell r="F11">
-            <v>0.15598674157303249</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12" t="str">
-            <v>DE</v>
-          </cell>
-          <cell r="F12">
-            <v>-0.10760327868852489</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13" t="str">
-            <v>FL</v>
-          </cell>
-          <cell r="F13">
-            <v>-8.0454691812329698E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14" t="str">
-            <v>GA</v>
-          </cell>
-          <cell r="F14">
-            <v>-5.5528242677823546E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15" t="str">
-            <v>HI</v>
-          </cell>
-          <cell r="F15">
-            <v>-3.2818803418803368E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16" t="str">
-            <v>IA</v>
-          </cell>
-          <cell r="F16">
-            <v>-6.4596874999999665E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17" t="str">
-            <v>ID</v>
-          </cell>
-          <cell r="F17">
-            <v>-0.1376401709401712</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18" t="str">
-            <v>IL</v>
-          </cell>
-          <cell r="F18">
-            <v>-9.3470540172490249E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19" t="str">
-            <v>IN</v>
-          </cell>
-          <cell r="F19">
-            <v>-5.6572923408845337E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20" t="str">
-            <v>KS</v>
-          </cell>
-          <cell r="F20">
-            <v>7.8449392712550154E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21" t="str">
-            <v>KY</v>
-          </cell>
-          <cell r="F21">
-            <v>-1.7260465116278924E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22" t="str">
-            <v>LA</v>
-          </cell>
-          <cell r="F22">
-            <v>-8.3536378737541397E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23" t="str">
-            <v>MA</v>
-          </cell>
-          <cell r="F23">
-            <v>-4.511319574734364E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24" t="str">
-            <v>MD</v>
-          </cell>
-          <cell r="F24">
-            <v>-7.373150684931451E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25" t="str">
-            <v>ME</v>
-          </cell>
-          <cell r="F25">
-            <v>-7.8790243902439133E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26" t="str">
-            <v>MI</v>
-          </cell>
-          <cell r="F26">
-            <v>-6.8260462670872352E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27" t="str">
-            <v>MN</v>
-          </cell>
-          <cell r="F27">
-            <v>-2.9134971098265808E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28" t="str">
-            <v>MO</v>
-          </cell>
-          <cell r="F28">
-            <v>-8.0527280477408369E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29" t="str">
-            <v>MS</v>
-          </cell>
-          <cell r="F29">
-            <v>5.5272027972028258E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30" t="str">
-            <v>MT</v>
-          </cell>
-          <cell r="F30">
-            <v>-4.8929850746268738E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31" t="str">
-            <v>NC</v>
-          </cell>
-          <cell r="F31">
-            <v>-2.5127993254637975E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32" t="str">
-            <v>ND</v>
-          </cell>
-          <cell r="F32">
-            <v>-3.9836666666666701E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33" t="str">
-            <v>NE</v>
-          </cell>
-          <cell r="F33">
-            <v>-4.7866406249999896E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34" t="str">
-            <v>NH</v>
-          </cell>
-          <cell r="F34">
-            <v>9.3866310160428457E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35" t="str">
-            <v>NJ</v>
-          </cell>
-          <cell r="F35">
-            <v>-5.4842335115864664E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36" t="str">
-            <v>NM</v>
-          </cell>
-          <cell r="F36">
-            <v>-1.8854999999999972E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37" t="str">
-            <v>NV</v>
-          </cell>
-          <cell r="F37">
-            <v>-2.6161873638344012E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38" t="str">
-            <v>NY</v>
-          </cell>
-          <cell r="F38">
-            <v>-3.525752725994153E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39" t="str">
-            <v>OH</v>
-          </cell>
-          <cell r="F39">
-            <v>-1.3201640378549293E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40" t="str">
-            <v>OK</v>
-          </cell>
-          <cell r="F40">
-            <v>-3.2944406779660818E-2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41" t="str">
-            <v>OR</v>
-          </cell>
-          <cell r="F41">
-            <v>-8.1375142857142285E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42" t="str">
-            <v>PA</v>
-          </cell>
-          <cell r="F42">
-            <v>3.0887212643678033E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43" t="str">
-            <v>PR</v>
-          </cell>
-          <cell r="F43">
-            <v>-7.1762162162162177E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44" t="str">
-            <v>RI</v>
-          </cell>
-          <cell r="F44">
-            <v>-0.14772605633802779</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45" t="str">
-            <v>SC</v>
-          </cell>
-          <cell r="F45">
-            <v>-6.0471249999999581E-2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46" t="str">
-            <v>SD</v>
-          </cell>
-          <cell r="F46">
-            <v>-0.18215882352941201</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47" t="str">
-            <v>TN</v>
-          </cell>
-          <cell r="F47">
-            <v>-6.9443436960275703E-2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48" t="str">
-            <v>TX</v>
-          </cell>
-          <cell r="F48">
-            <v>-5.739474103585783E-2</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49" t="str">
-            <v>UT</v>
-          </cell>
-          <cell r="F49">
-            <v>-0.16948562500000006</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50" t="str">
-            <v>VA</v>
-          </cell>
-          <cell r="F50">
-            <v>-9.6569805194804001E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51" t="str">
-            <v>VT</v>
-          </cell>
-          <cell r="F51">
-            <v>-6.3662500000000163E-2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52" t="str">
-            <v>WA</v>
-          </cell>
-          <cell r="F52">
-            <v>-2.7655321188877712E-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53" t="str">
-            <v>WI</v>
-          </cell>
-          <cell r="F53">
-            <v>-7.4521538461539095E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54" t="str">
-            <v>WV</v>
-          </cell>
-          <cell r="F54">
-            <v>5.9502654867256595E-2</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55" t="str">
-            <v>WY</v>
-          </cell>
-          <cell r="F55">
-            <v>-0.25769999999999998</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56" t="str">
-            <v>(blank)</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57" t="str">
-            <v>Grand Total</v>
-          </cell>
-          <cell r="F57">
-            <v>-4.9924428673369062E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,7 +704,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1277,8 +810,10 @@
         <v>0.3455375295031915</v>
       </c>
       <c r="O2">
-        <f>VLOOKUP(C2,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-4.0800969305331031E-2</v>
+      </c>
+      <c r="P2">
+        <v>3.0482537067546733E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1325,8 +860,10 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="O3">
-        <f>VLOOKUP(C3,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-9.5402999999999946E-2</v>
+      </c>
+      <c r="P3">
+        <v>-0.25626308243727669</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1373,8 +910,10 @@
         <v>0.45387117572631508</v>
       </c>
       <c r="O4">
-        <f>VLOOKUP(C4,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-7.8852811059907407E-2</v>
+      </c>
+      <c r="P4">
+        <v>-1.6748896734333156E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1421,8 +960,10 @@
         <v>0.33764322215525944</v>
       </c>
       <c r="O5">
-        <f>VLOOKUP(C5,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-7.7000950118765163E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.3204951856946435E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1469,8 +1010,10 @@
         <v>0.61588545794795302</v>
       </c>
       <c r="O6">
-        <f>VLOOKUP(C6,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-4.8321144024515345E-2</v>
+      </c>
+      <c r="P6">
+        <v>-6.6758259426389577E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1517,8 +1060,10 @@
         <v>0.47274631120609473</v>
       </c>
       <c r="O7">
-        <f>VLOOKUP(C7,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-4.383077922077934E-2</v>
+      </c>
+      <c r="P7">
+        <v>-5.2385146804836337E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1565,8 +1110,10 @@
         <v>0.54475461675768166</v>
       </c>
       <c r="O8">
-        <f>VLOOKUP(C8,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-4.3880890052356632E-2</v>
+      </c>
+      <c r="P8">
+        <v>-2.0218761384335E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1613,8 +1160,10 @@
         <v>0.53355000169861955</v>
       </c>
       <c r="O9">
-        <f>VLOOKUP(C9,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-0.10760327868852489</v>
+      </c>
+      <c r="P9">
+        <v>-9.212335329341316E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1661,8 +1210,10 @@
         <v>0.92846591882171603</v>
       </c>
       <c r="O10">
-        <f>VLOOKUP(C10,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>0.15598674157303249</v>
+      </c>
+      <c r="P10">
+        <v>-2.7856362153343805E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1709,8 +1260,10 @@
         <v>0.47788052307774254</v>
       </c>
       <c r="O11">
-        <f>VLOOKUP(C11,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-8.0454691812329698E-2</v>
+      </c>
+      <c r="P11">
+        <v>-4.9704128440377273E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1757,8 +1310,10 @@
         <v>0.45595503632651074</v>
       </c>
       <c r="O12">
-        <f>VLOOKUP(C12,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-5.5528242677823546E-2</v>
+      </c>
+      <c r="P12">
+        <v>-4.4486106916338218E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1805,8 +1360,10 @@
         <v>0.62222818165918503</v>
       </c>
       <c r="O13">
-        <f>VLOOKUP(C13,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-3.2818803418803368E-2</v>
+      </c>
+      <c r="P13">
+        <v>-1.3735419440745739E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1853,8 +1410,10 @@
         <v>0.27559917760648617</v>
       </c>
       <c r="O14">
-        <f>VLOOKUP(C14,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-0.1376401709401712</v>
+      </c>
+      <c r="P14">
+        <v>-3.6134615384615385E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1901,8 +1460,10 @@
         <v>0.55402733017259986</v>
       </c>
       <c r="O15">
-        <f>VLOOKUP(C15,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-9.3470540172490249E-2</v>
+      </c>
+      <c r="P15">
+        <v>-1.4566887019229417E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1949,11 +1510,13 @@
         <v>0.37911168470284484</v>
       </c>
       <c r="O16">
-        <f>VLOOKUP(C16,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-5.6572923408845337E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>-1.0022355105796214E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>19000</v>
       </c>
@@ -1997,11 +1560,13 @@
         <v>0.42180208441356426</v>
       </c>
       <c r="O17">
-        <f>VLOOKUP(C17,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-6.4596874999999665E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>1.3439109506618712E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20000</v>
       </c>
@@ -2045,11 +1610,13 @@
         <v>0.36158351661475507</v>
       </c>
       <c r="O18">
-        <f>VLOOKUP(C18,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>7.8449392712550154E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>-8.304959349593577E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>21000</v>
       </c>
@@ -2093,11 +1660,13 @@
         <v>0.32694793344515233</v>
       </c>
       <c r="O19">
-        <f>VLOOKUP(C19,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-1.7260465116278924E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>1.6478076379066422E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>22000</v>
       </c>
@@ -2141,11 +1710,13 @@
         <v>0.38443708756240347</v>
       </c>
       <c r="O20">
-        <f>VLOOKUP(C20,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-8.3536378737541397E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>4.9696498771497385E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>23000</v>
       </c>
@@ -2189,11 +1760,13 @@
         <v>0.47855572786730499</v>
       </c>
       <c r="O21">
-        <f>VLOOKUP(C21,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-7.8790243902439133E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>5.1490444810543379E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>24000</v>
       </c>
@@ -2237,11 +1810,13 @@
         <v>0.60534450199491385</v>
       </c>
       <c r="O22">
-        <f>VLOOKUP(C22,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-7.373150684931451E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>-6.4689208128944256E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>25000</v>
       </c>
@@ -2285,11 +1860,13 @@
         <v>0.60799911868399215</v>
       </c>
       <c r="O23">
-        <f>VLOOKUP(C23,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-4.511319574734364E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>-1.6855613517804992E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>26000</v>
       </c>
@@ -2333,11 +1910,13 @@
         <v>0.47343608749640204</v>
       </c>
       <c r="O24">
-        <f>VLOOKUP(C24,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-6.8260462670872352E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>-5.9581628991746849E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>27000</v>
       </c>
@@ -2381,11 +1960,13 @@
         <v>0.468616830864311</v>
       </c>
       <c r="O25">
-        <f>VLOOKUP(C25,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-2.9134971098265808E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>-1.5422848360655574E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>28000</v>
       </c>
@@ -2429,11 +2010,13 @@
         <v>0.39725379561422441</v>
       </c>
       <c r="O26">
-        <f>VLOOKUP(C26,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>5.5272027972028258E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>7.0122070312500243E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>29000</v>
       </c>
@@ -2477,11 +2060,13 @@
         <v>0.38012675588393635</v>
       </c>
       <c r="O27">
-        <f>VLOOKUP(C27,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-8.0527280477408369E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>-3.0321901528012445E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30000</v>
       </c>
@@ -2525,11 +2110,13 @@
         <v>0.35975626096403074</v>
       </c>
       <c r="O28">
-        <f>VLOOKUP(C28,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-4.8929850746268738E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>0.13293116883116887</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>31000</v>
       </c>
@@ -2573,11 +2160,13 @@
         <v>0.33992686541598088</v>
       </c>
       <c r="O29">
-        <f>VLOOKUP(C29,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-4.7866406249999896E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>5.0812598425196358E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>32000</v>
       </c>
@@ -2621,11 +2210,13 @@
         <v>0.47885822669836775</v>
       </c>
       <c r="O30">
-        <f>VLOOKUP(C30,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-2.6161873638344012E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>2.9759641499184631E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>33000</v>
       </c>
@@ -2669,11 +2260,13 @@
         <v>0.4759726806777661</v>
       </c>
       <c r="O31">
-        <f>VLOOKUP(C31,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>9.3866310160428457E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>-1.3055916230366301E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>34000</v>
       </c>
@@ -2717,11 +2310,13 @@
         <v>0.550153705155497</v>
       </c>
       <c r="O32">
-        <f>VLOOKUP(C32,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-5.4842335115864664E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>-3.7339612558447158E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>35000</v>
       </c>
@@ -2765,11 +2360,13 @@
         <v>0.48263718544041195</v>
       </c>
       <c r="O33">
-        <f>VLOOKUP(C33,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-1.8854999999999972E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>-1.7679226361031787E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>36000</v>
       </c>
@@ -2813,11 +2410,13 @@
         <v>0.58810262305435224</v>
       </c>
       <c r="O34">
-        <f>VLOOKUP(C34,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-3.525752725994153E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>-4.8495230748586131E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>37000</v>
       </c>
@@ -2861,11 +2460,13 @@
         <v>0.46702398610986007</v>
       </c>
       <c r="O35">
-        <f>VLOOKUP(C35,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-2.5127993254637975E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>2.5784796573875193E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>38000</v>
       </c>
@@ -2909,11 +2510,13 @@
         <v>0.2775515775978728</v>
       </c>
       <c r="O36">
-        <f>VLOOKUP(C36,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-3.9836666666666701E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>-0.11139831932773119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>39000</v>
       </c>
@@ -2957,11 +2560,13 @@
         <v>0.43508528475352531</v>
       </c>
       <c r="O37">
-        <f>VLOOKUP(C37,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-1.3201640378549293E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>1.6085824436536771E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>40000</v>
       </c>
@@ -3005,11 +2610,13 @@
         <v>0.28929827656548057</v>
       </c>
       <c r="O38">
-        <f>VLOOKUP(C38,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-3.2944406779660818E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>-3.5836680053547075E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>41000</v>
       </c>
@@ -3053,11 +2660,13 @@
         <v>0.51677757350400177</v>
       </c>
       <c r="O39">
-        <f>VLOOKUP(C39,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-8.1375142857142285E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>-0.12559923076923343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>42000</v>
       </c>
@@ -3101,11 +2710,13 @@
         <v>0.47649145986830721</v>
       </c>
       <c r="O40">
-        <f>VLOOKUP(C40,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>3.0887212643678033E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>-4.416280640320102E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>44000</v>
       </c>
@@ -3149,11 +2760,13 @@
         <v>0.55436824930621331</v>
       </c>
       <c r="O41">
-        <f>VLOOKUP(C41,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-0.14772605633802779</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>-9.4639967637540665E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>45000</v>
       </c>
@@ -3197,11 +2810,13 @@
         <v>0.40752785874794428</v>
       </c>
       <c r="O42">
-        <f>VLOOKUP(C42,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-6.0471249999999581E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>1.0519805380652857E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46000</v>
       </c>
@@ -3245,11 +2860,13 @@
         <v>0.31305375717347905</v>
       </c>
       <c r="O43">
-        <f>VLOOKUP(C43,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-0.18215882352941201</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>-4.3700000000000017E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>47000</v>
       </c>
@@ -3293,11 +2910,13 @@
         <v>0.34898102017514454</v>
       </c>
       <c r="O44">
-        <f>VLOOKUP(C44,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-6.9443436960275703E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>-3.9351350323315437E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>48000</v>
       </c>
@@ -3341,11 +2960,13 @@
         <v>0.43442806251254462</v>
       </c>
       <c r="O45">
-        <f>VLOOKUP(C45,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-5.739474103585783E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>-2.2653890094828013E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>49000</v>
       </c>
@@ -3389,11 +3010,13 @@
         <v>0.27837560421419411</v>
       </c>
       <c r="O46">
-        <f>VLOOKUP(C46,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-0.16948562500000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>-3.4512046783625357E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50000</v>
       </c>
@@ -3437,11 +3060,13 @@
         <v>0.61143119901994758</v>
       </c>
       <c r="O47">
-        <f>VLOOKUP(C47,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-6.3662500000000163E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>-1.8936170212765604E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>51000</v>
       </c>
@@ -3485,11 +3110,13 @@
         <v>0.49855687714299907</v>
       </c>
       <c r="O48">
-        <f>VLOOKUP(C48,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-9.6569805194804001E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>-1.8899222395022355E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>53000</v>
       </c>
@@ -3533,11 +3160,13 @@
         <v>0.54447450288071908</v>
       </c>
       <c r="O49">
-        <f>VLOOKUP(C49,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-2.7655321188877712E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>-6.2103943850267884E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>54000</v>
       </c>
@@ -3581,11 +3210,13 @@
         <v>0.26468528407598707</v>
       </c>
       <c r="O50">
-        <f>VLOOKUP(C50,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>5.9502654867256595E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>-2.1947727272726914E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>55000</v>
       </c>
@@ -3629,11 +3260,13 @@
         <v>0.47009524989735563</v>
       </c>
       <c r="O51">
-        <f>VLOOKUP(C51,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-7.4521538461539095E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>-3.7406144927536938E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>56000</v>
       </c>
@@ -3677,8 +3310,10 @@
         <v>0.22492783687515577</v>
       </c>
       <c r="O52">
-        <f>VLOOKUP(C52,[1]Hillary_pivot!$E:$F,2,0)</f>
         <v>-0.25769999999999998</v>
+      </c>
+      <c r="P52">
+        <v>-0.14613571428571401</v>
       </c>
     </row>
   </sheetData>
